--- a/input/国美后台数据/美票宝投资总表（1-6）.xlsx
+++ b/input/国美后台数据/美票宝投资总表（1-6）.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[温金中心]Winfae\❀温金中心 · 事业部❀\【融通宝】\❀❀❀国美❀❀❀\5. 后台数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,11 +84,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +101,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -113,12 +109,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,15 +169,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,42 +452,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J8"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="12" width="9.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="20.399999999999999">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,21 +520,21 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="3">
@@ -550,7 +550,7 @@
       <c r="G3" s="1">
         <v>32</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.04</v>
       </c>
       <c r="I3" s="1">
@@ -559,23 +559,23 @@
       <c r="J3" s="1">
         <v>49816</v>
       </c>
-      <c r="K3" s="7">
-        <f>J3*H3*G3/365</f>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K8" si="0">J3*H3*G3/365</f>
         <v>174.69720547945207</v>
       </c>
-      <c r="L3" s="7">
-        <f>J3+K3</f>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L8" si="1">J3+K3</f>
         <v>49990.697205479453</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="3">
@@ -585,13 +585,13 @@
         <v>42830</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F7" si="0">E4+G4</f>
+        <f t="shared" ref="F4:F7" si="2">E4+G4</f>
         <v>42853</v>
       </c>
       <c r="G4" s="1">
         <v>23</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.04</v>
       </c>
       <c r="I4" s="1">
@@ -600,23 +600,23 @@
       <c r="J4" s="1">
         <v>49868</v>
       </c>
-      <c r="K4" s="7">
-        <f>J4*H4*G4/365</f>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
         <v>125.69468493150684</v>
       </c>
-      <c r="L4" s="7">
-        <f>J4+K4</f>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
         <v>49993.694684931506</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3">
@@ -626,13 +626,13 @@
         <v>42830</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42849</v>
       </c>
       <c r="G5" s="1">
         <v>19</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.04</v>
       </c>
       <c r="I5" s="1">
@@ -641,23 +641,23 @@
       <c r="J5" s="1">
         <v>49890</v>
       </c>
-      <c r="K5" s="7">
-        <f>J5*H5*G5/365</f>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
         <v>103.88054794520548</v>
       </c>
-      <c r="L5" s="7">
-        <f>J5+K5</f>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
         <v>49993.880547945206</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3">
@@ -667,13 +667,13 @@
         <v>42830</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42857</v>
       </c>
       <c r="G6" s="1">
         <v>27</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.04</v>
       </c>
       <c r="I6" s="1">
@@ -682,23 +682,23 @@
       <c r="J6" s="1">
         <v>55278</v>
       </c>
-      <c r="K6" s="7">
-        <f>J6*H6*G6/365</f>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
         <v>163.56230136986301</v>
       </c>
-      <c r="L6" s="7">
-        <f>J6+K6</f>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
         <v>55441.562301369864</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3">
@@ -708,31 +708,31 @@
         <v>42832</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>42863</v>
+      </c>
+      <c r="G7" s="5">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="5">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>99644</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="G7" s="6">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="I7" s="6">
-        <v>15</v>
-      </c>
-      <c r="J7" s="6">
-        <v>99644</v>
-      </c>
-      <c r="K7" s="8">
-        <f>J7*H7*G7/365</f>
         <v>338.51660273972607</v>
       </c>
-      <c r="L7" s="8">
-        <f>J7+K7</f>
+      <c r="L7" s="7">
+        <f t="shared" si="1"/>
         <v>99982.516602739721</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="G8" s="1">
         <v>30</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.04</v>
       </c>
       <c r="I8" s="1">
@@ -763,12 +763,12 @@
       <c r="J8" s="1">
         <v>99655</v>
       </c>
-      <c r="K8" s="7">
-        <f>J8*H8*G8/365</f>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
         <v>327.63287671232882</v>
       </c>
-      <c r="L8" s="7">
-        <f>J8+K8</f>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
         <v>99982.632876712334</v>
       </c>
     </row>
